--- a/Ownership_Table.xlsx
+++ b/Ownership_Table.xlsx
@@ -446,16 +446,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0467</v>
+        <v>0.0006</v>
       </c>
       <c r="C5" t="n">
-        <v>2.353</v>
+        <v>0.4676</v>
       </c>
       <c r="D5" t="n">
-        <v>253.6294</v>
+        <v>253.8602</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2716</v>
+        <v>1.0265</v>
       </c>
     </row>
     <row r="6">

--- a/Ownership_Table.xlsx
+++ b/Ownership_Table.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">NaturaOgVildtreservater</t>
   </si>
   <si>
-    <t xml:space="preserve">Naturnationalparker</t>
+    <t xml:space="preserve">Naturnationalparks</t>
   </si>
   <si>
     <t xml:space="preserve">Urort_Skov</t>
@@ -395,16 +395,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>187.4598</v>
+        <v>187.4597</v>
       </c>
       <c r="C2" t="n">
-        <v>3193.3959</v>
+        <v>3193.3952</v>
       </c>
       <c r="D2" t="n">
-        <v>882.3428</v>
+        <v>882.3425</v>
       </c>
       <c r="E2" t="n">
-        <v>273.905</v>
+        <v>273.9055</v>
       </c>
     </row>
     <row r="3">
@@ -412,16 +412,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>60.4485</v>
+        <v>60.4488</v>
       </c>
       <c r="C3" t="n">
-        <v>2229.2764</v>
+        <v>2229.2769</v>
       </c>
       <c r="D3" t="n">
-        <v>1241.7097</v>
+        <v>1241.7109</v>
       </c>
       <c r="E3" t="n">
-        <v>347.1853</v>
+        <v>347.1881</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>7.1075</v>
+        <v>7.1078</v>
       </c>
       <c r="C4" t="n">
-        <v>151.2679</v>
+        <v>151.268</v>
       </c>
       <c r="D4" t="n">
-        <v>164.3106</v>
+        <v>164.311</v>
       </c>
       <c r="E4" t="n">
-        <v>116.9193</v>
+        <v>116.9216</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
         <v>0.4676</v>
       </c>
       <c r="D5" t="n">
-        <v>253.8602</v>
+        <v>253.8605</v>
       </c>
       <c r="E5" t="n">
         <v>1.0265</v>
@@ -463,16 +463,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4691</v>
+        <v>0.4386</v>
       </c>
       <c r="C6" t="n">
-        <v>33.8735</v>
+        <v>28.6326</v>
       </c>
       <c r="D6" t="n">
-        <v>651.3733</v>
+        <v>565.9717</v>
       </c>
       <c r="E6" t="n">
-        <v>12.0081</v>
+        <v>4.6676</v>
       </c>
     </row>
   </sheetData>
